--- a/diploms/hod-back/_Resources/Export/Кафедральная нагрузка ВМ.xlsx
+++ b/diploms/hod-back/_Resources/Export/Кафедральная нагрузка ВМ.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\пк\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unic\Diplom\diploms\hod-back\_Resources\Export\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FCD3BBD-8F36-48E6-B93E-46BD90B5193B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB704E4-3F46-4B1D-A209-38A9AE055CAC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11745" xr2:uid="{5EA9B01B-2979-4F6C-8F28-47E25E946877}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="25">
-  <si>
-    <t xml:space="preserve">Распределение нагрузки на осенний\весенний семестры </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="22">
   <si>
     <t>Кафедра высшей математики</t>
   </si>
@@ -63,9 +60,6 @@
     <t>Математика</t>
   </si>
   <si>
-    <t>ИВТ (б)-2016</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -90,16 +84,13 @@
     <t>Терентьева Екатерина Александровна</t>
   </si>
   <si>
-    <t>ИСТ (б)-2017</t>
-  </si>
-  <si>
     <t>Габова Мария Николаевна</t>
   </si>
   <si>
     <t>Лютоев Александр Анатольевич</t>
   </si>
   <si>
-    <t>Пармузина Мария Семеновна</t>
+    <t>Распределение нагрузки на осенний\весенний семестры на 2021-2022 года</t>
   </si>
 </sst>
 </file>
@@ -482,7 +473,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,7 +491,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -513,7 +504,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -526,39 +517,39 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -567,33 +558,33 @@
         <v>30</v>
       </c>
       <c r="E4" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F4" s="2">
         <v>0</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
       </c>
       <c r="D5" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E5" s="2">
         <v>30</v>
@@ -602,56 +593,56 @@
         <v>0</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
       </c>
       <c r="D6" s="2">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F6" s="2">
         <v>0</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
       </c>
       <c r="D7" s="2">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E7" s="2">
         <v>30</v>
@@ -660,21 +651,21 @@
         <v>0</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
@@ -689,21 +680,21 @@
         <v>0</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
@@ -718,21 +709,21 @@
         <v>0</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C10" s="2">
         <v>2</v>
@@ -747,21 +738,21 @@
         <v>0</v>
       </c>
       <c r="G10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C11" s="2">
         <v>2</v>
@@ -776,18 +767,18 @@
         <v>0</v>
       </c>
       <c r="G11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>16</v>
@@ -805,18 +796,18 @@
         <v>0</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>17</v>
@@ -834,420 +825,17 @@
         <v>0</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="2">
-        <v>2</v>
-      </c>
-      <c r="D14" s="2">
-        <v>20</v>
-      </c>
-      <c r="E14" s="2">
-        <v>42</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="2">
-        <v>2</v>
-      </c>
-      <c r="D15" s="2">
-        <v>30</v>
-      </c>
-      <c r="E15" s="2">
-        <v>30</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="2">
-        <v>3</v>
-      </c>
-      <c r="D16" s="2">
-        <v>30</v>
-      </c>
-      <c r="E16" s="2">
-        <v>30</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="2">
-        <v>3</v>
-      </c>
-      <c r="D17" s="2">
-        <v>30</v>
-      </c>
-      <c r="E17" s="2">
-        <v>30</v>
-      </c>
-      <c r="F17" s="2">
-        <v>0</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="2">
-        <v>3</v>
-      </c>
-      <c r="D18" s="2">
-        <v>30</v>
-      </c>
-      <c r="E18" s="2">
-        <v>30</v>
-      </c>
-      <c r="F18" s="2">
-        <v>0</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="2">
-        <v>3</v>
-      </c>
-      <c r="D19" s="2">
-        <v>20</v>
-      </c>
-      <c r="E19" s="2">
-        <v>30</v>
-      </c>
-      <c r="F19" s="2">
-        <v>0</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="2">
-        <v>3</v>
-      </c>
-      <c r="D20" s="2">
-        <v>30</v>
-      </c>
-      <c r="E20" s="2">
-        <v>30</v>
-      </c>
-      <c r="F20" s="2">
-        <v>0</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="2">
-        <v>3</v>
-      </c>
-      <c r="D21" s="2">
-        <v>30</v>
-      </c>
-      <c r="E21" s="2">
-        <v>30</v>
-      </c>
-      <c r="F21" s="2">
-        <v>0</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="2">
-        <v>4</v>
-      </c>
-      <c r="D22" s="2">
-        <v>40</v>
-      </c>
-      <c r="E22" s="2">
-        <v>40</v>
-      </c>
-      <c r="F22" s="2">
-        <v>0</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="2">
-        <v>4</v>
-      </c>
-      <c r="D23" s="2">
-        <v>30</v>
-      </c>
-      <c r="E23" s="2">
-        <v>30</v>
-      </c>
-      <c r="F23" s="2">
-        <v>0</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="2">
-        <v>4</v>
-      </c>
-      <c r="D24" s="2">
-        <v>40</v>
-      </c>
-      <c r="E24" s="2">
-        <v>40</v>
-      </c>
-      <c r="F24" s="2">
-        <v>0</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="2">
-        <v>4</v>
-      </c>
-      <c r="D25" s="2">
-        <v>38</v>
-      </c>
-      <c r="E25" s="2">
-        <v>40</v>
-      </c>
-      <c r="F25" s="2">
-        <v>0</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="2">
-        <v>4</v>
-      </c>
-      <c r="D26" s="2">
-        <v>40</v>
-      </c>
-      <c r="E26" s="2">
-        <v>30</v>
-      </c>
-      <c r="F26" s="2">
-        <v>0</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" s="2">
-        <v>4</v>
-      </c>
-      <c r="D27" s="2">
-        <v>40</v>
-      </c>
-      <c r="E27" s="2">
-        <v>40</v>
-      </c>
-      <c r="F27" s="2">
-        <v>0</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>15</v>
-      </c>
+    </row>
+    <row r="27" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H27" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
